--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826781CB-1851-4B21-BEC2-D570D29FC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3741C29-5970-43EF-A7FF-8B69935C16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -433,15 +433,6 @@
     <t>Popa Laurentiu Florin</t>
   </si>
   <si>
-    <t>1(T) - 2(F) - 1</t>
-  </si>
-  <si>
-    <t>1(T) - 2(T) - 3</t>
-  </si>
-  <si>
-    <t>1(F) - 4</t>
-  </si>
-  <si>
     <t>allParts = [ Part(id: 1, name:  "Motor") , Part(id:2, name: "Baterie") ],
 searchItem = "Roata"</t>
   </si>
@@ -462,13 +453,7 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>p.getName().contains(searchItem) || (p.getPartId()+"").equals(searchItem)</t>
-  </si>
-  <si>
     <t>p is not null</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>searchItem</t>
@@ -497,6 +482,63 @@
   </si>
   <si>
     <t>"1"</t>
+  </si>
+  <si>
+    <t>1(T) - 2(F) - 4(F) - 6(F)-1</t>
+  </si>
+  <si>
+    <t>1(T) - 2(F) - 4(F) - 6(T)- 7 - 10</t>
+  </si>
+  <si>
+    <t>1(T) - 2(F) - 4(T) - 5 - 6(F)- 1</t>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <t>1(T) - 2(F) - 4(T) - 5 - 6(T)- 7-10</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1(T) - 2(T) - 3 - 4(F) - 6(F)-1</t>
+  </si>
+  <si>
+    <t>1(T) - 2(T) - 3 - 4(F) - 6(T)- 7 - 10</t>
+  </si>
+  <si>
+    <t>1(T) - 2(T) - 3 - 4(T) - 5 - 6(F)- 1</t>
+  </si>
+  <si>
+    <t>1(T) - 2(T) - 3  - 4(T) - 5 - 6(T)- 7-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(F) - 9 -10 </t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>F02_P07</t>
+  </si>
+  <si>
+    <t>F02_P08</t>
+  </si>
+  <si>
+    <t>F02_P09</t>
+  </si>
+  <si>
+    <t>p.getName().contains(searchItem)</t>
+  </si>
+  <si>
+    <t>(p.getPartId()+"").equals(searchItem)</t>
+  </si>
+  <si>
+    <t>pFinal != null</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,6 +1249,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1219,6 +1266,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,170 +1281,184 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,23 +1480,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582083</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>582082</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555FDA5E-EF83-0D3E-27A4-E125BF93BEC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4995DF-3232-3DC0-9226-E6614A867BFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,8 +1512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1005417" y="1280583"/>
-          <a:ext cx="6170083" cy="2053167"/>
+          <a:off x="8614833" y="1333501"/>
+          <a:ext cx="5196416" cy="4824679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,23 +1524,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328083</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>394514</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2777</xdr:rowOff>
+      <xdr:rowOff>52915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC130116-2915-FBBE-3239-2D5CF85BAFF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350C934C-D9E6-971D-D054-34B54AEF8BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,8 +1556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8964084" y="1354666"/>
-          <a:ext cx="4296833" cy="3410611"/>
+          <a:off x="920750" y="1238248"/>
+          <a:ext cx="5474514" cy="3577167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,7 +1862,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,12 +1872,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
@@ -1930,69 +1997,70 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB20"/>
+  <dimension ref="B1:AB24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="33" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="P6" s="33" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="P6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="Y6" s="33" t="s">
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="Y6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F8" s="25"/>
@@ -2000,33 +2068,33 @@
       <c r="P8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="50" t="s">
+      <c r="Y8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
       <c r="AB8" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="I9" s="30"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
-      <c r="Y9" s="50" t="s">
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="47"/>
+      <c r="Y9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
       <c r="AB9" s="26">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
@@ -2042,22 +2110,22 @@
       <c r="I10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="46"/>
-      <c r="Y10" s="50" t="s">
+      <c r="P10" s="48"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="50"/>
+      <c r="Y10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="Z10" s="50" t="s">
+      <c r="Z10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AA10" s="50"/>
+      <c r="AA10" s="41"/>
       <c r="AB10" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
@@ -2069,13 +2137,13 @@
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="46"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="50"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F12" s="27" t="s">
@@ -2086,13 +2154,13 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="46"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="50"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F13" s="27" t="s">
@@ -2103,19 +2171,19 @@
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="46"/>
-      <c r="Y13" s="33" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="50"/>
+      <c r="Y13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F14" s="27" t="s">
@@ -2126,13 +2194,13 @@
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="46"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="50"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F15" s="27" t="s">
@@ -2143,21 +2211,21 @@
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="46"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="50"/>
       <c r="Y15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Z15" s="51" t="s">
+      <c r="Z15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F16" s="27" t="s">
@@ -2166,85 +2234,133 @@
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="46"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="50"/>
       <c r="Y16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Z16" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
+      <c r="Z16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
     </row>
     <row r="17" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="46"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="50"/>
       <c r="Y17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Z17" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
+      <c r="Z17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
     </row>
     <row r="18" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P18" s="44"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="46"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
       <c r="Y18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Z18" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
+      <c r="Z18" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
     </row>
     <row r="19" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="46"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="50"/>
+      <c r="Y19" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
     </row>
     <row r="20" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="49"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="53"/>
+      <c r="Y20" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+    </row>
+    <row r="21" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="Y21" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z21" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+    </row>
+    <row r="22" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="Y22" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z22" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+    </row>
+    <row r="23" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="Y23" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z23" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+    </row>
+    <row r="24" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="Y24" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z24" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Z24:AB24"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="G12:I12"/>
@@ -2257,6 +2373,14 @@
     <mergeCell ref="P6:V6"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2269,10 +2393,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:S12"/>
+  <dimension ref="B1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,149 +2404,201 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="11" width="24.42578125" style="97" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="21" width="8.85546875" style="97" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+    <row r="6" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="54"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="56" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="55" t="s">
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-    </row>
-    <row r="8" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="57" t="s">
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+    </row>
+    <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="65"/>
+      <c r="C8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="60"/>
-      <c r="F8" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="56" t="s">
+      <c r="F8" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="O8" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="P8" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="55">
+      <c r="Q8" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="T8" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" s="63">
         <v>0</v>
       </c>
-      <c r="N8" s="55">
+      <c r="X8" s="63">
         <v>1</v>
       </c>
-      <c r="O8" s="55">
+      <c r="Y8" s="63">
         <v>2</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="Z8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="AA8" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="AB8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="AC8" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+    <row r="9" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="65"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="9" t="s">
         <v>46</v>
@@ -2430,163 +2606,235 @@
       <c r="G9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-    </row>
-    <row r="10" spans="2:19" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="J9" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+    </row>
+    <row r="10" spans="2:29" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="2:19" ht="110.25" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+    </row>
+    <row r="11" spans="2:29" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="94.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="99"/>
+      <c r="L12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
+  <mergeCells count="32">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="E6:AC6"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="W8:W9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,8 +2849,8 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,51 +2867,51 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="66" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>56</v>
@@ -2676,44 +2924,44 @@
       <c r="B6" s="16">
         <v>9</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>10</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2722,19 +2970,19 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,61 +2992,61 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="61" t="s">
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="62"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="76" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
@@ -2811,14 +3059,14 @@
       <c r="D13" s="19">
         <v>0</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="22">
         <v>0</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="35">
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -2831,17 +3079,7 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:B5"/>
@@ -2850,7 +3088,17 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,12 +3116,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e00392fbb7f49de63e89755c965b762">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37d4e1d93698397f16b7bbb6f83014a7" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3041,6 +3283,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
@@ -3050,15 +3298,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845501DA-8B32-4FE5-8083-FBCE9B17F25B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3074,4 +3313,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>